--- a/data/daniel/output/processed_f.xlsx
+++ b/data/daniel/output/processed_f.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-83.09</v>
+        <v>-83.0938</v>
       </c>
       <c r="C2" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D2" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.4044</v>
       </c>
       <c r="F2" t="n">
-        <v>-85.62</v>
+        <v>-85.6212</v>
       </c>
       <c r="G2" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H2" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I2" t="n">
-        <v>0.39</v>
+        <v>0.3924</v>
       </c>
       <c r="J2" t="n">
-        <v>-27.7</v>
+        <v>-27.6979</v>
       </c>
       <c r="K2" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>1.2131</v>
       </c>
       <c r="N2" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O2" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P2" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="3">
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-93.72</v>
+        <v>-93.7182</v>
       </c>
       <c r="C3" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D3" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.36</v>
+        <v>0.3585</v>
       </c>
       <c r="F3" t="n">
-        <v>-92.88</v>
+        <v>-92.878</v>
       </c>
       <c r="G3" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H3" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.36</v>
+        <v>0.3618</v>
       </c>
       <c r="J3" t="n">
-        <v>-31.24</v>
+        <v>-31.2394</v>
       </c>
       <c r="K3" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L3" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.0756</v>
       </c>
       <c r="N3" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O3" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P3" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="4">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-93.43000000000001</v>
+        <v>-93.4259</v>
       </c>
       <c r="C4" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D4" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E4" t="n">
-        <v>0.36</v>
+        <v>0.3597</v>
       </c>
       <c r="F4" t="n">
-        <v>-93.15000000000001</v>
+        <v>-93.151</v>
       </c>
       <c r="G4" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H4" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I4" t="n">
-        <v>0.36</v>
+        <v>0.3607</v>
       </c>
       <c r="J4" t="n">
-        <v>-31.14</v>
+        <v>-31.142</v>
       </c>
       <c r="K4" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L4" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.079</v>
       </c>
       <c r="N4" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O4" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P4" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-92.88</v>
+        <v>-92.8758</v>
       </c>
       <c r="C5" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D5" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E5" t="n">
-        <v>0.36</v>
+        <v>0.3618</v>
       </c>
       <c r="F5" t="n">
-        <v>-92.90000000000001</v>
+        <v>-92.89570000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.36</v>
+        <v>0.3617</v>
       </c>
       <c r="J5" t="n">
-        <v>-30.96</v>
+        <v>-30.9586</v>
       </c>
       <c r="K5" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L5" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.0853</v>
       </c>
       <c r="N5" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O5" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P5" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="6">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.65000000000001</v>
+        <v>-92.6444</v>
       </c>
       <c r="C6" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D6" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.3627</v>
       </c>
       <c r="F6" t="n">
-        <v>-92.7</v>
+        <v>-92.7045</v>
       </c>
       <c r="G6" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I6" t="n">
-        <v>0.36</v>
+        <v>0.3625</v>
       </c>
       <c r="J6" t="n">
-        <v>-30.88</v>
+        <v>-30.8815</v>
       </c>
       <c r="K6" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L6" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.0881</v>
       </c>
       <c r="N6" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O6" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P6" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="7">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-92.88</v>
+        <v>-92.8758</v>
       </c>
       <c r="C7" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D7" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.36</v>
+        <v>0.3618</v>
       </c>
       <c r="F7" t="n">
-        <v>-92.90000000000001</v>
+        <v>-92.89570000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H7" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I7" t="n">
-        <v>0.36</v>
+        <v>0.3617</v>
       </c>
       <c r="J7" t="n">
-        <v>-30.96</v>
+        <v>-30.9586</v>
       </c>
       <c r="K7" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L7" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.0853</v>
       </c>
       <c r="N7" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O7" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P7" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="8">
@@ -857,52 +857,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-93.43000000000001</v>
+        <v>-93.4259</v>
       </c>
       <c r="C8" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36</v>
+        <v>0.3597</v>
       </c>
       <c r="F8" t="n">
-        <v>-93.15000000000001</v>
+        <v>-93.151</v>
       </c>
       <c r="G8" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H8" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I8" t="n">
-        <v>0.36</v>
+        <v>0.3607</v>
       </c>
       <c r="J8" t="n">
-        <v>-31.14</v>
+        <v>-31.142</v>
       </c>
       <c r="K8" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L8" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.079</v>
       </c>
       <c r="N8" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O8" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P8" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="9">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-93.72</v>
+        <v>-93.7182</v>
       </c>
       <c r="C9" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E9" t="n">
-        <v>0.36</v>
+        <v>0.3585</v>
       </c>
       <c r="F9" t="n">
-        <v>-92.88</v>
+        <v>-92.878</v>
       </c>
       <c r="G9" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H9" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I9" t="n">
-        <v>0.36</v>
+        <v>0.3618</v>
       </c>
       <c r="J9" t="n">
-        <v>-31.24</v>
+        <v>-31.2394</v>
       </c>
       <c r="K9" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L9" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.0756</v>
       </c>
       <c r="N9" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O9" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P9" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-83.09</v>
+        <v>-83.0938</v>
       </c>
       <c r="C10" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="D10" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>0.4044</v>
       </c>
       <c r="F10" t="n">
-        <v>-85.62</v>
+        <v>-85.6212</v>
       </c>
       <c r="G10" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="H10" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="I10" t="n">
-        <v>0.39</v>
+        <v>0.3924</v>
       </c>
       <c r="J10" t="n">
-        <v>-27.7</v>
+        <v>-27.6979</v>
       </c>
       <c r="K10" t="n">
-        <v>529.35</v>
+        <v>490</v>
       </c>
       <c r="L10" t="n">
-        <v>50.4</v>
+        <v>50.4013</v>
       </c>
       <c r="M10" t="n">
-        <v>1.21</v>
+        <v>1.2131</v>
       </c>
       <c r="N10" t="n">
-        <v>43392.34</v>
+        <v>43392.3401</v>
       </c>
       <c r="O10" t="n">
-        <v>113.4</v>
+        <v>113.3993</v>
       </c>
       <c r="P10" t="n">
-        <v>51.43</v>
+        <v>51.4338</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.61</v>
+        <v>6.6138</v>
       </c>
     </row>
   </sheetData>
